--- a/sap_access_management_deletion_performer/Data/Config.xlsx
+++ b/sap_access_management_deletion_performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\sap_access_management_deletion_performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Dhananjay\DateChange\sap_access_management_deletion_performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F7E03-E132-44A2-9F07-ADEEC190E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32AA78-0D81-4D16-837E-B67C60F725E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>SAP_AccessDelete_FolderErrortScreenshot</t>
-  </si>
-  <si>
-    <t>SAP_AccessDeletion_OchestratorFolderPath</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1819,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>42</v>
@@ -2806,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2894,14 +2891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
